--- a/REFramework/Data/Config.xlsx
+++ b/REFramework/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimhwayeon\Desktop\RPA\Study\RPA 2025 수업\REFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55A6B5-9D33-4300-B5AF-25CA8345C45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +160,45 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>InputPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutputPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Output</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FileName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>티켓랭킹.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Subject</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RPA[]_</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,6 +222,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,19 +250,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,15 +577,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.53125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.46484375" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -594,7 +634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="42.75">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +644,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="28.5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -616,10 +656,38 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1619,15 +1687,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.46484375" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1665,7 +1733,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="28.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="28.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1858,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="28.5">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2782,14 +2850,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="4" max="26" width="65.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2833,7 +2903,9 @@
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B7" s="2"/>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/REFramework/Data/Config.xlsx
+++ b/REFramework/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimhwayeon\Desktop\RPA\Study\RPA 2025 수업\REFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55A6B5-9D33-4300-B5AF-25CA8345C45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9EF75-4DC8-4D1D-82FB-0394B236D69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Exceptions_Screenshots</t>
   </si>
   <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
     <t>LogMessage_GetTransactionData</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve">Error getting transaction data for Transaction Number: </t>
-  </si>
-  <si>
-    <t>Static part of logging message. Error retrieving Transaction Data.</t>
   </si>
   <si>
     <t>LogMessage_Success</t>
@@ -90,40 +84,14 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
     <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
     <t>MaxConsecutiveSystemExceptions</t>
@@ -138,25 +106,7 @@
     <t>RetryNumberSetTransactionStatus</t>
   </si>
   <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
     <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
     <t>ProcessABCQueue</t>
@@ -193,12 +143,3349 @@
     <t>RPA[]_</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Orchestator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기열을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반드시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로봇은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예외로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동일한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시도합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값이어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>허용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연속적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>. MaxConsecuousSystemExceptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도달하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중지됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비활성화하려면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스크린샷을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로깅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로깅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로깅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>로깅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비즈니스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예외를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>로깅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예외로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실패했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MaxConsequencialSystemExceptions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번호에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도달한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>예외가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활동을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시도하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>횟수입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>예외가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활동을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시도하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>횟수입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TRUE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생하거나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> MaxConsequencialSystemExceptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도달하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Faulted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로세스의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동일한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비즈니스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로세스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그룹화할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로깅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필드</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>폴더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Orchestator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폴더와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일치해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폴더에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OrchestatorQueueName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기열을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폴더의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필드를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비워</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둡니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>오케스트레이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오케스트레이터에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일치해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,6 +3516,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,17 +3551,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -577,15 +3883,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.53125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.46484375" customWidth="1"/>
+    <col min="3" max="3" width="83.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,67 +3931,67 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="29.25">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="42.75">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.5">
+    <row r="5" spans="1:26" ht="29.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1687,15 +4993,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.46484375" customWidth="1"/>
+    <col min="1" max="1" width="32.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1733,7 +5039,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.5">
+    <row r="2" spans="1:26" ht="33.75">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1741,18 +5047,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="28.5">
+    <row r="3" spans="1:26" ht="33.75">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1763,110 +5069,110 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>39</v>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.5">
+    <row r="17" spans="1:3" ht="29.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2870,7 +6176,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
